--- a/NVEL TECHTREE.xlsx
+++ b/NVEL TECHTREE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a193fa16756e5fc/桌面/Homosapient-Legacy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Homosapient-Legacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{603C727D-E987-4EA8-ABB7-1A0DDD75E312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96060E3-CCCA-4C97-BB67-0DCBD9B31E6D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644697A-CC19-499F-AF8A-1587738C3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D51CA907-2270-4119-A4A7-06CBA7CE837F}"/>
   </bookViews>
@@ -701,7 +701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -762,14 +762,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -832,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,11 +899,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5078,472 +5093,841 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D6CE76-9A90-48FA-BE16-C16E4E981A7F}">
-  <dimension ref="A2:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="36.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="36.6" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="1:11" ht="36.6" customHeight="1">
-      <c r="A2" t="s">
+    <row r="1" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B3" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22">
         <v>5</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="22">
         <v>5</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="22">
         <f>SUM(C3:G3)</f>
         <v>10</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B4" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22">
         <f t="shared" ref="H4:H6" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B5" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B6" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" ht="36.6" customHeight="1">
-      <c r="A7" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B8" t="s">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B9" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B10" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B11" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" ht="36.6" customHeight="1">
-      <c r="A12" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B13" t="s">
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B14" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B15" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" ht="36.6" customHeight="1">
-      <c r="B16" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A17" t="s">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B18" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22" t="s">
         <v>110</v>
       </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B19" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22" t="s">
         <v>111</v>
       </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B20" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22" t="s">
         <v>112</v>
       </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B21" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22" t="s">
         <v>113</v>
       </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A22" t="s">
+      <c r="A22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="23" t="s">
         <v>141</v>
       </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B23" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22" t="s">
         <v>110</v>
       </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B24" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22" t="s">
         <v>111</v>
       </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B25" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22" t="s">
         <v>112</v>
       </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B26" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22" t="s">
         <v>113</v>
       </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A27" t="s">
+      <c r="A27" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
         <v>157</v>
       </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B28" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
         <v>110</v>
       </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B29" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22" t="s">
         <v>111</v>
       </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B30" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22" t="s">
         <v>112</v>
       </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="36.6" customHeight="1">
-      <c r="B31" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22" t="s">
         <v>113</v>
       </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:14" ht="36.6" customHeight="1">
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="36.6" customHeight="1">
-      <c r="B33" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="36.6" customHeight="1">
-      <c r="B34" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="36.6" customHeight="1">
-      <c r="B35" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="36.6" customHeight="1">
-      <c r="B36" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" ht="36.6" customHeight="1">
-      <c r="C37" s="21" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="23" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" ht="36.6" customHeight="1">
-      <c r="C42" s="21" t="s">
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+    </row>
+    <row r="41" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+    </row>
+    <row r="42" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23" t="s">
         <v>148</v>
       </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+    </row>
+    <row r="43" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NVEL TECHTREE.xlsx
+++ b/NVEL TECHTREE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Homosapient-Legacy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a193fa16756e5fc/桌面/Homosapient-Legacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644697A-CC19-499F-AF8A-1587738C3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{9644697A-CC19-499F-AF8A-1587738C3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E80D3F-9390-4C45-893C-E0321EA4F48D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D51CA907-2270-4119-A4A7-06CBA7CE837F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="170">
   <si>
     <t>tribalism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,20 +688,56 @@
     <t>carving</t>
   </si>
   <si>
-    <t>gem-cutting</t>
-  </si>
-  <si>
     <t>pottery</t>
   </si>
   <si>
     <t>masonry</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>lapidary</t>
+  </si>
+  <si>
+    <t>monument-building</t>
+  </si>
+  <si>
+    <t>basic drawing</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>census</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -775,7 +811,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -911,7 +953,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,6 +971,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5093,10 +5139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D6CE76-9A90-48FA-BE16-C16E4E981A7F}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="36.6" customHeight="1"/>
@@ -5117,342 +5163,358 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="22"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24">
         <v>5</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="24">
         <v>5</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="24">
         <f>SUM(C3:G3)</f>
         <v>10</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="22"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24">
         <f t="shared" ref="H4:H6" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="22"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24">
+        <v>5</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="22"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="22"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="22"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24">
+        <f>SUM(C8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="22"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="C9" s="24">
+        <v>5</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
+        <f t="shared" ref="H9:H11" si="1">SUM(C9:G9)</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="22"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="22"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="22"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="22"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="22"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="22"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="22"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="22"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23" t="s">
+      <c r="A17" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="24" t="s">
         <v>136</v>
       </c>
       <c r="L17" s="24" t="s">
@@ -5461,473 +5523,540 @@
       <c r="M17" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="N17" s="20" t="s">
-        <v>156</v>
+      <c r="N17" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="22"/>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="22"/>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23" t="s">
+      <c r="A22" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="22"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="22"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="22"/>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="22"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
     <row r="26" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="22"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
     <row r="27" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23" t="s">
+      <c r="A27" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="G27" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="K27" s="22"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="22"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="22"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="22"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="22"/>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23" t="s">
+      <c r="A32" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="F32" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="22"/>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
     <row r="33" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="22"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
     <row r="34" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="22"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
     </row>
     <row r="35" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="22"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
     </row>
     <row r="36" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="22"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
     </row>
     <row r="37" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23" t="s">
+      <c r="A37" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
+      <c r="F37" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="22"/>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
     </row>
     <row r="38" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="22"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
     </row>
     <row r="39" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="22"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
       <c r="K40" s="22"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
     </row>
     <row r="41" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="22"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
     </row>
     <row r="42" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23" t="s">
+      <c r="A42" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="22"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
     </row>
     <row r="43" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+    </row>
+    <row r="46" spans="1:13" ht="36.6" customHeight="1">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NVEL TECHTREE.xlsx
+++ b/NVEL TECHTREE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a193fa16756e5fc/桌面/Homosapient-Legacy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\aworking on\Game project\Homosapient-Legacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{9644697A-CC19-499F-AF8A-1587738C3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E80D3F-9390-4C45-893C-E0321EA4F48D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1FA14-88A2-4CA7-8FEF-3C300EC9A560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D51CA907-2270-4119-A4A7-06CBA7CE837F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D51CA907-2270-4119-A4A7-06CBA7CE837F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1 (2)" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="171">
   <si>
     <t>tribalism</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -732,12 +732,15 @@
   <si>
     <t>T8</t>
   </si>
+  <si>
+    <t>boat building</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -821,6 +824,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -880,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,6 +965,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -973,14 +985,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1018,7 +1026,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1124,7 +1132,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1266,7 +1274,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1280,9 +1288,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1306,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -1318,7 +1326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1330,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -1342,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1354,13 +1362,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1371,7 +1379,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -1382,7 +1390,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -1393,7 +1401,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>17</v>
@@ -1405,7 +1413,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -1441,7 +1449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1459,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1477,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -1495,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>16</v>
@@ -1513,14 +1521,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1532,7 +1540,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1544,7 +1552,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1556,7 +1564,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>17</v>
@@ -1568,7 +1576,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1616,7 +1624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1640,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -1664,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>6</v>
@@ -1688,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>16</v>
@@ -1712,14 +1720,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1731,7 +1739,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>9</v>
@@ -1743,7 +1751,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -1755,7 +1763,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
@@ -1767,7 +1775,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>31</v>
       </c>
@@ -1797,7 +1805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -1830,7 +1838,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1860,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -1890,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -1920,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
         <v>16</v>
@@ -1950,14 +1958,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -1969,7 +1977,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -1981,7 +1989,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>10</v>
@@ -1993,7 +2001,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
         <v>17</v>
@@ -2005,7 +2013,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>39</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -2095,7 +2103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -2140,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -2185,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -2230,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>16</v>
@@ -2275,14 +2283,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -2294,7 +2302,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>9</v>
@@ -2306,7 +2314,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>10</v>
@@ -2318,7 +2326,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
         <v>17</v>
@@ -2330,7 +2338,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="62" spans="2:17">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>71</v>
       </c>
@@ -2374,7 +2382,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" spans="2:17">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
         <v>3</v>
@@ -2418,7 +2426,7 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="2:17">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
         <v>4</v>
@@ -2462,7 +2470,7 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="2:17">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
         <v>5</v>
@@ -2506,7 +2514,7 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="2:17">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
       <c r="C66" s="13" t="s">
         <v>6</v>
@@ -2550,7 +2558,7 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="2:17">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
       <c r="C67" s="13" t="s">
         <v>16</v>
@@ -2592,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -2608,7 +2616,7 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
         <v>8</v>
@@ -2629,7 +2637,7 @@
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="13"/>
       <c r="C70" s="13" t="s">
         <v>9</v>
@@ -2650,7 +2658,7 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="2:17">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="13"/>
       <c r="C71" s="13" t="s">
         <v>10</v>
@@ -2671,7 +2679,7 @@
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
         <v>17</v>
@@ -2692,7 +2700,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2708,7 +2716,7 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="2:17">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>78</v>
       </c>
@@ -2738,7 +2746,7 @@
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
         <v>3</v>
@@ -2768,7 +2776,7 @@
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
       <c r="C76" s="13" t="s">
         <v>4</v>
@@ -2798,7 +2806,7 @@
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
         <v>5</v>
@@ -2828,7 +2836,7 @@
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
         <v>6</v>
@@ -2858,7 +2866,7 @@
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
         <v>16</v>
@@ -2888,7 +2896,7 @@
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -2904,7 +2912,7 @@
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
         <v>8</v>
@@ -2925,7 +2933,7 @@
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
         <v>9</v>
@@ -2946,7 +2954,7 @@
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
         <v>10</v>
@@ -2967,7 +2975,7 @@
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
         <v>17</v>
@@ -2988,7 +2996,7 @@
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -2997,7 +3005,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>78</v>
       </c>
@@ -3014,7 +3022,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
         <v>3</v>
@@ -3031,7 +3039,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
         <v>4</v>
@@ -3048,7 +3056,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
         <v>5</v>
@@ -3065,7 +3073,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
         <v>6</v>
@@ -3082,7 +3090,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
         <v>16</v>
@@ -3099,7 +3107,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -3108,7 +3116,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
         <v>8</v>
@@ -3122,7 +3130,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
         <v>9</v>
@@ -3136,7 +3144,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
         <v>10</v>
@@ -3150,7 +3158,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
         <v>17</v>
@@ -3178,9 +3186,9 @@
       <selection activeCell="G12" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="30.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="30.75" customHeight="1">
+    <row r="2" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3198,7 +3206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30.75" customHeight="1">
+    <row r="3" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -3216,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="30.75" customHeight="1">
+    <row r="4" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -3234,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30.75" customHeight="1">
+    <row r="5" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3252,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30.75" customHeight="1">
+    <row r="6" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -3270,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30.75" customHeight="1">
+    <row r="7" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -3288,13 +3296,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30.75" customHeight="1">
+    <row r="8" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:8" ht="30.75" customHeight="1">
+    <row r="9" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="17" t="s">
         <v>99</v>
@@ -3305,7 +3313,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="30.75" customHeight="1">
+    <row r="10" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="17" t="s">
         <v>100</v>
@@ -3316,7 +3324,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:8" ht="30.75" customHeight="1">
+    <row r="11" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="17" t="s">
         <v>102</v>
@@ -3327,7 +3335,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:8" ht="30.75" customHeight="1">
+    <row r="12" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="18" t="s">
         <v>101</v>
@@ -3339,7 +3347,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="14" spans="2:8" ht="30.75" customHeight="1">
+    <row r="14" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
@@ -3360,7 +3368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30.75" customHeight="1">
+    <row r="15" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -3381,7 +3389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30.75" customHeight="1">
+    <row r="16" spans="2:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -3402,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="30.75" customHeight="1">
+    <row r="17" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -3423,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="30.75" customHeight="1">
+    <row r="18" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -3444,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="30.75" customHeight="1">
+    <row r="19" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>16</v>
@@ -3465,14 +3473,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="30.75" customHeight="1">
+    <row r="20" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:12" ht="30.75" customHeight="1">
+    <row r="21" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -3484,7 +3492,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:12" ht="30.75" customHeight="1">
+    <row r="22" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -3496,7 +3504,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:12" ht="30.75" customHeight="1">
+    <row r="23" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -3508,7 +3516,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:12" ht="30.75" customHeight="1">
+    <row r="24" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>17</v>
@@ -3520,7 +3528,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="26" spans="2:12" ht="30.75" customHeight="1">
+    <row r="26" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3550,7 +3558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="30.75" customHeight="1">
+    <row r="27" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -3580,7 +3588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="30.75" customHeight="1">
+    <row r="28" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -3610,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="30.75" customHeight="1">
+    <row r="29" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -3640,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="30.75" customHeight="1">
+    <row r="30" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>6</v>
@@ -3670,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="30.75" customHeight="1">
+    <row r="31" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>16</v>
@@ -3700,14 +3708,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="30.75" customHeight="1">
+    <row r="32" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:16" ht="30.75" customHeight="1">
+    <row r="33" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -3719,7 +3727,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:16" ht="30.75" customHeight="1">
+    <row r="34" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>9</v>
@@ -3731,7 +3739,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:16" ht="30.75" customHeight="1">
+    <row r="35" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -3743,7 +3751,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:16" ht="30.75" customHeight="1">
+    <row r="36" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
@@ -3755,7 +3763,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="38" spans="2:16" ht="30.75" customHeight="1">
+    <row r="38" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>31</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="30.75" customHeight="1">
+    <row r="39" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -3834,7 +3842,7 @@
       </c>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="2:16" ht="30.75" customHeight="1">
+    <row r="40" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -3873,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="30.75" customHeight="1">
+    <row r="41" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -3912,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="30.75" customHeight="1">
+    <row r="42" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
         <v>6</v>
@@ -3951,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="30.75" customHeight="1">
+    <row r="43" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
         <v>16</v>
@@ -3990,14 +3998,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="30.75" customHeight="1">
+    <row r="44" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:16" ht="30.75" customHeight="1">
+    <row r="45" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -4009,7 +4017,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:16" ht="30.75" customHeight="1">
+    <row r="46" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -4021,7 +4029,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:16" ht="30.75" customHeight="1">
+    <row r="47" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>10</v>
@@ -4033,7 +4041,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:16" ht="30.75" customHeight="1">
+    <row r="48" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
         <v>17</v>
@@ -4045,7 +4053,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="50" spans="2:17" ht="30.75" customHeight="1">
+    <row r="50" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>39</v>
       </c>
@@ -4073,7 +4081,7 @@
       </c>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="2:17" ht="30.75" customHeight="1">
+    <row r="51" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -4101,7 +4109,7 @@
       </c>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="2:17" ht="30.75" customHeight="1">
+    <row r="52" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
         <v>4</v>
@@ -4129,7 +4137,7 @@
       </c>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="2:17" ht="30.75" customHeight="1">
+    <row r="53" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -4157,7 +4165,7 @@
       </c>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="2:17" ht="30.75" customHeight="1">
+    <row r="54" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>6</v>
@@ -4185,7 +4193,7 @@
       </c>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="2:17" ht="30.75" customHeight="1">
+    <row r="55" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>16</v>
@@ -4212,14 +4220,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:17" ht="30.75" customHeight="1">
+    <row r="56" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="2:17" ht="30.75" customHeight="1">
+    <row r="57" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -4231,7 +4239,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="2:17" ht="30.75" customHeight="1">
+    <row r="58" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>9</v>
@@ -4243,7 +4251,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:17" ht="30.75" customHeight="1">
+    <row r="59" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>10</v>
@@ -4255,7 +4263,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="2:17" ht="30.75" customHeight="1">
+    <row r="60" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
         <v>17</v>
@@ -4267,7 +4275,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="62" spans="2:17" ht="30.75" customHeight="1">
+    <row r="62" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>71</v>
       </c>
@@ -4307,7 +4315,7 @@
       </c>
       <c r="Q62" s="10"/>
     </row>
-    <row r="63" spans="2:17" ht="30.75" customHeight="1">
+    <row r="63" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
         <v>3</v>
@@ -4347,7 +4355,7 @@
       </c>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="2:17" ht="30.75" customHeight="1">
+    <row r="64" spans="2:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
         <v>4</v>
@@ -4385,7 +4393,7 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="2:18" ht="30.75" customHeight="1">
+    <row r="65" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
         <v>5</v>
@@ -4423,7 +4431,7 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="2:18" ht="30.75" customHeight="1">
+    <row r="66" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13"/>
       <c r="C66" s="13" t="s">
         <v>6</v>
@@ -4461,7 +4469,7 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="2:18" ht="30.75" customHeight="1">
+    <row r="67" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
       <c r="C67" s="13" t="s">
         <v>16</v>
@@ -4497,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:18" ht="30.75" customHeight="1">
+    <row r="68" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -4513,7 +4521,7 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
     </row>
-    <row r="69" spans="2:18" ht="30.75" customHeight="1">
+    <row r="69" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
         <v>8</v>
@@ -4534,7 +4542,7 @@
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
     </row>
-    <row r="70" spans="2:18" ht="30.75" customHeight="1">
+    <row r="70" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="13"/>
       <c r="C70" s="13" t="s">
         <v>9</v>
@@ -4555,7 +4563,7 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="2:18" ht="30.75" customHeight="1">
+    <row r="71" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="13"/>
       <c r="C71" s="13" t="s">
         <v>10</v>
@@ -4576,7 +4584,7 @@
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
     </row>
-    <row r="72" spans="2:18" ht="30.75" customHeight="1">
+    <row r="72" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
         <v>17</v>
@@ -4597,7 +4605,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="2:18" ht="30.75" customHeight="1">
+    <row r="73" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4613,7 +4621,7 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="2:18" ht="30.75" customHeight="1">
+    <row r="74" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>78</v>
       </c>
@@ -4648,7 +4656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="2:18" ht="30.75" customHeight="1">
+    <row r="75" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
         <v>3</v>
@@ -4683,7 +4691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:18" ht="30.75" customHeight="1">
+    <row r="76" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="13"/>
       <c r="C76" s="13" t="s">
         <v>4</v>
@@ -4718,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:18" ht="30.75" customHeight="1">
+    <row r="77" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
         <v>5</v>
@@ -4753,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:18" ht="30.75" customHeight="1">
+    <row r="78" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
         <v>6</v>
@@ -4788,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:18" ht="30.75" customHeight="1">
+    <row r="79" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
         <v>16</v>
@@ -4823,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:18" ht="30.75" customHeight="1">
+    <row r="80" spans="2:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -4841,7 +4849,7 @@
       </c>
       <c r="O80" s="8"/>
     </row>
-    <row r="81" spans="2:15" ht="30.75" customHeight="1">
+    <row r="81" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
         <v>8</v>
@@ -4864,7 +4872,7 @@
       </c>
       <c r="O81" s="8"/>
     </row>
-    <row r="82" spans="2:15" ht="30.75" customHeight="1">
+    <row r="82" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
         <v>9</v>
@@ -4887,7 +4895,7 @@
       </c>
       <c r="O82" s="8"/>
     </row>
-    <row r="83" spans="2:15" ht="30.75" customHeight="1">
+    <row r="83" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
         <v>10</v>
@@ -4910,7 +4918,7 @@
       </c>
       <c r="O83" s="8"/>
     </row>
-    <row r="84" spans="2:15" ht="30.75" customHeight="1">
+    <row r="84" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
         <v>17</v>
@@ -4933,7 +4941,7 @@
       </c>
       <c r="O84" s="8"/>
     </row>
-    <row r="85" spans="2:15" ht="30.75" customHeight="1">
+    <row r="85" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -4945,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:15" ht="30.75" customHeight="1">
+    <row r="86" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>78</v>
       </c>
@@ -4960,7 +4968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="30.75" customHeight="1">
+    <row r="87" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
         <v>3</v>
@@ -4975,7 +4983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="2:15" ht="30.75" customHeight="1">
+    <row r="88" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
         <v>4</v>
@@ -4990,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:15" ht="30.75" customHeight="1">
+    <row r="89" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
         <v>5</v>
@@ -5005,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="30.75" customHeight="1">
+    <row r="90" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
         <v>6</v>
@@ -5020,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="30.75" customHeight="1">
+    <row r="91" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
         <v>16</v>
@@ -5035,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:15" ht="30.75" customHeight="1">
+    <row r="92" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -5044,7 +5052,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="2:15" ht="30.75" customHeight="1">
+    <row r="93" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
         <v>8</v>
@@ -5058,7 +5066,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="2:15" ht="30.75" customHeight="1">
+    <row r="94" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
         <v>9</v>
@@ -5072,7 +5080,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="2:15" ht="30.75" customHeight="1">
+    <row r="95" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
         <v>10</v>
@@ -5086,7 +5094,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="2:15" ht="30.75" customHeight="1">
+    <row r="96" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
         <v>17</v>
@@ -5141,13 +5149,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D6CE76-9A90-48FA-BE16-C16E4E981A7F}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="36.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.6" customHeight="1">
+    <row r="1" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5162,7 +5170,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:13" ht="36.6" customHeight="1">
+    <row r="2" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>104</v>
       </c>
@@ -5191,7 +5199,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" ht="36.6" customHeight="1">
+    <row r="3" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>110</v>
@@ -5215,7 +5223,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:13" ht="36.6" customHeight="1">
+    <row r="4" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24" t="s">
         <v>111</v>
@@ -5235,7 +5243,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" spans="1:13" ht="36.6" customHeight="1">
+    <row r="5" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24" t="s">
         <v>112</v>
@@ -5257,7 +5265,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="1:13" ht="36.6" customHeight="1">
+    <row r="6" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
         <v>113</v>
@@ -5277,7 +5285,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" spans="1:13" ht="36.6" customHeight="1">
+    <row r="7" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>165</v>
       </c>
@@ -5304,7 +5312,7 @@
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="36.6" customHeight="1">
+    <row r="8" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
         <v>110</v>
@@ -5324,7 +5332,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" ht="36.6" customHeight="1">
+    <row r="9" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24" t="s">
         <v>111</v>
@@ -5346,7 +5354,7 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="1:13" ht="36.6" customHeight="1">
+    <row r="10" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24" t="s">
         <v>112</v>
@@ -5366,7 +5374,7 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="1:13" ht="36.6" customHeight="1">
+    <row r="11" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24" t="s">
         <v>113</v>
@@ -5386,7 +5394,7 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" spans="1:13" ht="36.6" customHeight="1">
+    <row r="12" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>166</v>
       </c>
@@ -5417,7 +5425,7 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" spans="1:13" ht="36.6" customHeight="1">
+    <row r="13" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24" t="s">
         <v>110</v>
@@ -5434,7 +5442,7 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
     </row>
-    <row r="14" spans="1:13" ht="36.6" customHeight="1">
+    <row r="14" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24" t="s">
         <v>111</v>
@@ -5451,7 +5459,7 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="36.6" customHeight="1">
+    <row r="15" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
         <v>112</v>
@@ -5468,7 +5476,7 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" ht="36.6" customHeight="1">
+    <row r="16" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
         <v>113</v>
@@ -5485,7 +5493,7 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
     </row>
-    <row r="17" spans="1:14" ht="36.6" customHeight="1">
+    <row r="17" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>167</v>
       </c>
@@ -5527,7 +5535,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="36.6" customHeight="1">
+    <row r="18" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
         <v>110</v>
@@ -5544,7 +5552,7 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
     </row>
-    <row r="19" spans="1:14" ht="36.6" customHeight="1">
+    <row r="19" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
         <v>111</v>
@@ -5561,7 +5569,7 @@
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
     </row>
-    <row r="20" spans="1:14" ht="36.6" customHeight="1">
+    <row r="20" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="24" t="s">
         <v>112</v>
@@ -5578,7 +5586,7 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="1:14" ht="36.6" customHeight="1">
+    <row r="21" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="24" t="s">
         <v>113</v>
@@ -5595,7 +5603,7 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
     </row>
-    <row r="22" spans="1:14" ht="36.6" customHeight="1">
+    <row r="22" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>143</v>
       </c>
@@ -5621,12 +5629,14 @@
       <c r="I22" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="24" t="s">
+        <v>142</v>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
     </row>
-    <row r="23" spans="1:14" ht="36.6" customHeight="1">
+    <row r="23" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="24" t="s">
         <v>110</v>
@@ -5643,7 +5653,7 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:14" ht="36.6" customHeight="1">
+    <row r="24" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
         <v>111</v>
@@ -5660,7 +5670,7 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="36.6" customHeight="1">
+    <row r="25" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="24" t="s">
         <v>112</v>
@@ -5677,7 +5687,7 @@
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="36.6" customHeight="1">
+    <row r="26" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="24" t="s">
         <v>113</v>
@@ -5694,37 +5704,31 @@
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" spans="1:14" ht="36.6" customHeight="1">
+    <row r="27" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>157</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="24" t="s">
         <v>162</v>
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" spans="1:14" ht="36.6" customHeight="1">
+    <row r="28" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="24" t="s">
         <v>110</v>
@@ -5741,7 +5745,7 @@
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
     </row>
-    <row r="29" spans="1:14" ht="36.6" customHeight="1">
+    <row r="29" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24" t="s">
         <v>111</v>
@@ -5758,7 +5762,7 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" spans="1:14" ht="36.6" customHeight="1">
+    <row r="30" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="24" t="s">
         <v>112</v>
@@ -5775,7 +5779,7 @@
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
     </row>
-    <row r="31" spans="1:14" ht="36.6" customHeight="1">
+    <row r="31" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="24" t="s">
         <v>113</v>
@@ -5792,7 +5796,7 @@
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
     </row>
-    <row r="32" spans="1:14" ht="36.6" customHeight="1">
+    <row r="32" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>158</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>164</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="24"/>
@@ -5819,7 +5823,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" spans="1:13" ht="36.6" customHeight="1">
+    <row r="33" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
         <v>110</v>
@@ -5836,7 +5840,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" spans="1:13" ht="36.6" customHeight="1">
+    <row r="34" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
         <v>111</v>
@@ -5853,7 +5857,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
     </row>
-    <row r="35" spans="1:13" ht="36.6" customHeight="1">
+    <row r="35" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
         <v>112</v>
@@ -5870,7 +5874,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
     </row>
-    <row r="36" spans="1:13" ht="36.6" customHeight="1">
+    <row r="36" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
         <v>113</v>
@@ -5887,7 +5891,7 @@
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
     </row>
-    <row r="37" spans="1:13" ht="36.6" customHeight="1">
+    <row r="37" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>168</v>
       </c>
@@ -5907,14 +5911,18 @@
       <c r="G37" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="H37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="J37" s="24"/>
       <c r="K37" s="22"/>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
     </row>
-    <row r="38" spans="1:13" ht="36.6" customHeight="1">
+    <row r="38" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24" t="s">
         <v>110</v>
@@ -5931,7 +5939,7 @@
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
     </row>
-    <row r="39" spans="1:13" ht="36.6" customHeight="1">
+    <row r="39" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="24" t="s">
         <v>111</v>
@@ -5948,7 +5956,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
     </row>
-    <row r="40" spans="1:13" ht="36.6" customHeight="1">
+    <row r="40" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
         <v>112</v>
@@ -5965,7 +5973,7 @@
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
     </row>
-    <row r="41" spans="1:13" ht="36.6" customHeight="1">
+    <row r="41" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="24" t="s">
         <v>113</v>
@@ -5982,7 +5990,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
     </row>
-    <row r="42" spans="1:13" ht="36.6" customHeight="1">
+    <row r="42" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>169</v>
       </c>
@@ -5990,7 +5998,9 @@
       <c r="C42" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="24"/>
+      <c r="D42" s="25" t="s">
+        <v>170</v>
+      </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -6001,7 +6011,7 @@
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
     </row>
-    <row r="43" spans="1:13" ht="36.6" customHeight="1">
+    <row r="43" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24" t="s">
         <v>110</v>
@@ -6016,7 +6026,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:13" ht="36.6" customHeight="1">
+    <row r="44" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="24" t="s">
         <v>111</v>
@@ -6030,7 +6040,7 @@
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:13" ht="36.6" customHeight="1">
+    <row r="45" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="24" t="s">
         <v>112</v>
@@ -6044,7 +6054,7 @@
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:13" ht="36.6" customHeight="1">
+    <row r="46" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="24" t="s">
         <v>113</v>
